--- a/考勤排班模板.xlsx
+++ b/考勤排班模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -47,8 +47,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -170,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,9 +202,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,6 +237,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,19 +413,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B3" sqref="B3:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -443,7 +445,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -460,15 +462,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>0.375</v>
@@ -477,12 +479,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -494,12 +496,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -511,12 +513,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -528,12 +530,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -545,15 +547,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>0.375</v>
@@ -562,15 +564,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>0.375</v>
@@ -579,15 +581,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>0.375</v>
@@ -596,15 +598,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
         <v>0.375</v>
@@ -613,15 +615,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
         <v>0.375</v>
@@ -630,15 +632,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1">
         <v>0.375</v>
@@ -647,15 +649,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1">
         <v>0.375</v>
@@ -664,15 +666,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1">
         <v>0.375</v>
@@ -681,15 +683,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1">
         <v>0.375</v>
@@ -698,15 +700,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1">
         <v>0.375</v>
@@ -715,105 +717,156 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
         <v>21</v>
       </c>
-      <c r="D18" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="D19" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19">
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
         <v>24</v>
       </c>
-      <c r="D19" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
+      <c r="D21" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
         <v>25</v>
       </c>
-      <c r="D20" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21">
+      <c r="D22" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
         <v>26</v>
       </c>
-      <c r="D21" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
+      <c r="D23" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
         <v>27</v>
       </c>
-      <c r="D22" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>28</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D24" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="1">
         <v>0.75</v>
       </c>
     </row>
@@ -824,5 +877,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>